--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.496279666666667</v>
+        <v>4.873099</v>
       </c>
       <c r="H2">
-        <v>10.488839</v>
+        <v>14.619297</v>
       </c>
       <c r="I2">
-        <v>0.012257967083928</v>
+        <v>0.01719598526069697</v>
       </c>
       <c r="J2">
-        <v>0.01237343288830874</v>
+        <v>0.01727593400119405</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N2">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O2">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P2">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q2">
-        <v>5.283277152215334</v>
+        <v>4.921151004872667</v>
       </c>
       <c r="R2">
-        <v>47.549494369938</v>
+        <v>44.290359043854</v>
       </c>
       <c r="S2">
-        <v>0.0002748050929399809</v>
+        <v>0.0002327328041558911</v>
       </c>
       <c r="T2">
-        <v>0.0003073508081529229</v>
+        <v>0.0002664849221753144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.496279666666667</v>
+        <v>4.873099</v>
       </c>
       <c r="H3">
-        <v>10.488839</v>
+        <v>14.619297</v>
       </c>
       <c r="I3">
-        <v>0.012257967083928</v>
+        <v>0.01719598526069697</v>
       </c>
       <c r="J3">
-        <v>0.01237343288830874</v>
+        <v>0.01727593400119405</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P3">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q3">
-        <v>161.3664549590664</v>
+        <v>224.9118449509726</v>
       </c>
       <c r="R3">
-        <v>1452.298094631598</v>
+        <v>2024.206604558754</v>
       </c>
       <c r="S3">
-        <v>0.008393336630812079</v>
+        <v>0.01063661007587172</v>
       </c>
       <c r="T3">
-        <v>0.009387376227204952</v>
+        <v>0.0121791864217784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.496279666666667</v>
+        <v>4.873099</v>
       </c>
       <c r="H4">
-        <v>10.488839</v>
+        <v>14.619297</v>
       </c>
       <c r="I4">
-        <v>0.012257967083928</v>
+        <v>0.01719598526069697</v>
       </c>
       <c r="J4">
-        <v>0.01237343288830874</v>
+        <v>0.01727593400119405</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P4">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q4">
-        <v>68.91034189558682</v>
+        <v>0.04539616591766667</v>
       </c>
       <c r="R4">
-        <v>413.462051373521</v>
+        <v>0.408565493259</v>
       </c>
       <c r="S4">
-        <v>0.003584311851064286</v>
+        <v>2.146891445006172E-06</v>
       </c>
       <c r="T4">
-        <v>0.002672539367959271</v>
+        <v>2.458244774372673E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.496279666666667</v>
+        <v>4.873099</v>
       </c>
       <c r="H5">
-        <v>10.488839</v>
+        <v>14.619297</v>
       </c>
       <c r="I5">
-        <v>0.012257967083928</v>
+        <v>0.01719598526069697</v>
       </c>
       <c r="J5">
-        <v>0.01237343288830874</v>
+        <v>0.01727593400119405</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N5">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O5">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P5">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q5">
-        <v>0.106000206934</v>
+        <v>133.7318881409665</v>
       </c>
       <c r="R5">
-        <v>0.9540018624059999</v>
+        <v>802.391328845799</v>
       </c>
       <c r="S5">
-        <v>5.513509111658246E-06</v>
+        <v>0.006324495489224356</v>
       </c>
       <c r="T5">
-        <v>6.166484991589196E-06</v>
+        <v>0.004827804412465958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>813.936584</v>
       </c>
       <c r="I6">
-        <v>0.9512213749373789</v>
+        <v>0.9573949760789487</v>
       </c>
       <c r="J6">
-        <v>0.9601815508335352</v>
+        <v>0.9618461617095089</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N6">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O6">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P6">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q6">
-        <v>409.9836557315254</v>
+        <v>273.9875137808765</v>
       </c>
       <c r="R6">
-        <v>3689.852901583728</v>
+        <v>2465.887624027888</v>
       </c>
       <c r="S6">
-        <v>0.02132494536462716</v>
+        <v>0.01295751386673292</v>
       </c>
       <c r="T6">
-        <v>0.02385050117345013</v>
+        <v>0.01483667971468678</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>813.936584</v>
       </c>
       <c r="I7">
-        <v>0.9512213749373789</v>
+        <v>0.9573949760789487</v>
       </c>
       <c r="J7">
-        <v>0.9601815508335352</v>
+        <v>0.9618461617095089</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P7">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q7">
         <v>12522.07809859341</v>
@@ -886,10 +886,10 @@
         <v>112698.7028873407</v>
       </c>
       <c r="S7">
-        <v>0.6513250652093385</v>
+        <v>0.5921985216180375</v>
       </c>
       <c r="T7">
-        <v>0.7284627916487236</v>
+        <v>0.6780822218771188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>813.936584</v>
       </c>
       <c r="I8">
-        <v>0.9512213749373789</v>
+        <v>0.9573949760789487</v>
       </c>
       <c r="J8">
-        <v>0.9601815508335352</v>
+        <v>0.9618461617095089</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N8">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O8">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P8">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q8">
-        <v>5347.46012258993</v>
+        <v>2.527453968116445</v>
       </c>
       <c r="R8">
-        <v>32084.76073553957</v>
+        <v>22.747085713048</v>
       </c>
       <c r="S8">
-        <v>0.2781435146488551</v>
+        <v>0.0001195292419989243</v>
       </c>
       <c r="T8">
-        <v>0.2073897372018283</v>
+        <v>0.0001368639924538604</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>813.936584</v>
       </c>
       <c r="I9">
-        <v>0.9512213749373789</v>
+        <v>0.9573949760789487</v>
       </c>
       <c r="J9">
-        <v>0.9601815508335352</v>
+        <v>0.9618461617095089</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N9">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O9">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P9">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q9">
-        <v>8.225643117904001</v>
+        <v>7445.588950366656</v>
       </c>
       <c r="R9">
-        <v>74.03078806113599</v>
+        <v>44673.53370219993</v>
       </c>
       <c r="S9">
-        <v>0.0004278497145581115</v>
+        <v>0.3521194113521794</v>
       </c>
       <c r="T9">
-        <v>0.0004785208095330073</v>
+        <v>0.2687903961252493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.502045333333333</v>
+        <v>1.022486666666667</v>
       </c>
       <c r="H10">
-        <v>4.506136</v>
+        <v>3.067460000000001</v>
       </c>
       <c r="I10">
-        <v>0.005266175480785147</v>
+        <v>0.003608107622943672</v>
       </c>
       <c r="J10">
-        <v>0.005315781029872989</v>
+        <v>0.003624882681520371</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N10">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O10">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P10">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q10">
-        <v>2.269761731834667</v>
+        <v>1.032569066857778</v>
       </c>
       <c r="R10">
-        <v>20.427855586512</v>
+        <v>9.293121601720001</v>
       </c>
       <c r="S10">
-        <v>0.0001180596939547069</v>
+        <v>4.883261947794273E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001320417389614789</v>
+        <v>5.591457916039944E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.502045333333333</v>
+        <v>1.022486666666667</v>
       </c>
       <c r="H11">
-        <v>4.506136</v>
+        <v>3.067460000000001</v>
       </c>
       <c r="I11">
-        <v>0.005266175480785147</v>
+        <v>0.003608107622943672</v>
       </c>
       <c r="J11">
-        <v>0.005315781029872989</v>
+        <v>0.003624882681520371</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P11">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q11">
-        <v>69.32504082515021</v>
+        <v>47.19160489819111</v>
       </c>
       <c r="R11">
-        <v>623.9253674263518</v>
+        <v>424.72444408372</v>
       </c>
       <c r="S11">
-        <v>0.003605882057320264</v>
+        <v>0.002231801976752608</v>
       </c>
       <c r="T11">
-        <v>0.004032933860740203</v>
+        <v>0.002555469471709097</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.502045333333333</v>
+        <v>1.022486666666667</v>
       </c>
       <c r="H12">
-        <v>4.506136</v>
+        <v>3.067460000000001</v>
       </c>
       <c r="I12">
-        <v>0.005266175480785147</v>
+        <v>0.003608107622943672</v>
       </c>
       <c r="J12">
-        <v>0.005315781029872989</v>
+        <v>0.003624882681520371</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N12">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O12">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P12">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q12">
-        <v>29.60474199175066</v>
+        <v>0.009525144957777778</v>
       </c>
       <c r="R12">
-        <v>177.628451950504</v>
+        <v>0.08572630462000001</v>
       </c>
       <c r="S12">
-        <v>0.001539865057258236</v>
+        <v>4.504665054618312E-07</v>
       </c>
       <c r="T12">
-        <v>0.00114815623134062</v>
+        <v>5.15795493832378E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,55 +1213,55 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.022486666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.067460000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.003608107622943672</v>
+      </c>
+      <c r="J13">
+        <v>0.003624882681520371</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>1.502045333333333</v>
-      </c>
-      <c r="H13">
-        <v>4.506136</v>
-      </c>
-      <c r="I13">
-        <v>0.005266175480785147</v>
-      </c>
-      <c r="J13">
-        <v>0.005315781029872989</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N13">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O13">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P13">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q13">
-        <v>0.045539010416</v>
+        <v>28.05998247363667</v>
       </c>
       <c r="R13">
-        <v>0.4098510937439999</v>
+        <v>168.35989484182</v>
       </c>
       <c r="S13">
-        <v>2.36867225194049E-06</v>
+        <v>0.001327022560207659</v>
       </c>
       <c r="T13">
-        <v>2.649198830686578E-06</v>
+        <v>0.001012982835157041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.984949</v>
+        <v>3.9343185</v>
       </c>
       <c r="H14">
-        <v>15.969898</v>
+        <v>7.868637</v>
       </c>
       <c r="I14">
-        <v>0.02799525534013169</v>
+        <v>0.01388325641175922</v>
       </c>
       <c r="J14">
-        <v>0.01883930729951484</v>
+        <v>0.009298535592467514</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N14">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O14">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P14">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q14">
-        <v>12.066168223186</v>
+        <v>3.973113503289</v>
       </c>
       <c r="R14">
-        <v>72.39700933911601</v>
+        <v>23.838681019734</v>
       </c>
       <c r="S14">
-        <v>0.0006276113072379147</v>
+        <v>0.0001878978811937536</v>
       </c>
       <c r="T14">
-        <v>0.0004679603773515588</v>
+        <v>0.0001434318708054703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.984949</v>
+        <v>3.9343185</v>
       </c>
       <c r="H15">
-        <v>15.969898</v>
+        <v>7.868637</v>
       </c>
       <c r="I15">
-        <v>0.02799525534013169</v>
+        <v>0.01388325641175922</v>
       </c>
       <c r="J15">
-        <v>0.01883930729951484</v>
+        <v>0.009298535592467514</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>138.461282</v>
       </c>
       <c r="O15">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P15">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q15">
-        <v>368.5354250815393</v>
+        <v>181.583594435439</v>
       </c>
       <c r="R15">
-        <v>2211.212550489236</v>
+        <v>1089.501566612634</v>
       </c>
       <c r="S15">
-        <v>0.01916905148516427</v>
+        <v>0.008587515213376237</v>
       </c>
       <c r="T15">
-        <v>0.01429285365483138</v>
+        <v>0.006555280798269791</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.984949</v>
+        <v>3.9343185</v>
       </c>
       <c r="H16">
-        <v>15.969898</v>
+        <v>7.868637</v>
       </c>
       <c r="I16">
-        <v>0.02799525534013169</v>
+        <v>0.01388325641175922</v>
       </c>
       <c r="J16">
-        <v>0.01883930729951484</v>
+        <v>0.009298535592467514</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N16">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O16">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P16">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q16">
-        <v>157.3803065169055</v>
+        <v>0.0366507997065</v>
       </c>
       <c r="R16">
-        <v>629.521226067622</v>
+        <v>0.219904798239</v>
       </c>
       <c r="S16">
-        <v>0.008186000566176273</v>
+        <v>1.733302510287502E-06</v>
       </c>
       <c r="T16">
-        <v>0.004069104417304338</v>
+        <v>1.323116685206236E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.984949</v>
+        <v>3.9343185</v>
       </c>
       <c r="H17">
-        <v>15.969898</v>
+        <v>7.868637</v>
       </c>
       <c r="I17">
-        <v>0.02799525534013169</v>
+        <v>0.01388325641175922</v>
       </c>
       <c r="J17">
-        <v>0.01883930729951484</v>
+        <v>0.009298535592467514</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N17">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O17">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P17">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q17">
-        <v>0.242087683782</v>
+        <v>107.9690442473947</v>
       </c>
       <c r="R17">
-        <v>1.452526102692</v>
+        <v>431.876176989579</v>
       </c>
       <c r="S17">
-        <v>1.259198155323761E-05</v>
+        <v>0.005106110014678942</v>
       </c>
       <c r="T17">
-        <v>9.388850027558846E-06</v>
+        <v>0.002598499806707046</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9296133333333332</v>
+        <v>2.243757</v>
       </c>
       <c r="H18">
-        <v>2.78884</v>
+        <v>6.731271</v>
       </c>
       <c r="I18">
-        <v>0.003259227157776163</v>
+        <v>0.007917674625651083</v>
       </c>
       <c r="J18">
-        <v>0.003289927948768299</v>
+        <v>0.007954486015309181</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N18">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O18">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P18">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q18">
-        <v>1.404751722586667</v>
+        <v>2.265881939858</v>
       </c>
       <c r="R18">
-        <v>12.64276550328</v>
+        <v>20.392937458722</v>
       </c>
       <c r="S18">
-        <v>7.306694624588443E-05</v>
+        <v>0.0001071588856402075</v>
       </c>
       <c r="T18">
-        <v>8.172041041045605E-05</v>
+        <v>0.0001226996228735178</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9296133333333332</v>
+        <v>2.243757</v>
       </c>
       <c r="H19">
-        <v>2.78884</v>
+        <v>6.731271</v>
       </c>
       <c r="I19">
-        <v>0.003259227157776163</v>
+        <v>0.007917674625651083</v>
       </c>
       <c r="J19">
-        <v>0.003289927948768299</v>
+        <v>0.007954486015309181</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>138.461282</v>
       </c>
       <c r="O19">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P19">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q19">
-        <v>42.90515129920888</v>
+        <v>103.557823572158</v>
       </c>
       <c r="R19">
-        <v>386.1463616928799</v>
+        <v>932.0204121494219</v>
       </c>
       <c r="S19">
-        <v>0.002231674347320419</v>
+        <v>0.004897493015021388</v>
       </c>
       <c r="T19">
-        <v>0.002495975991001316</v>
+        <v>0.005607752846426933</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,55 +1647,55 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9296133333333332</v>
+        <v>2.243757</v>
       </c>
       <c r="H20">
-        <v>2.78884</v>
+        <v>6.731271</v>
       </c>
       <c r="I20">
-        <v>0.003259227157776163</v>
+        <v>0.007917674625651083</v>
       </c>
       <c r="J20">
-        <v>0.003289927948768299</v>
+        <v>0.007954486015309181</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N20">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O20">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P20">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q20">
-        <v>18.32232508212666</v>
+        <v>0.020902092293</v>
       </c>
       <c r="R20">
-        <v>109.93395049276</v>
+        <v>0.188118830637</v>
       </c>
       <c r="S20">
-        <v>0.0009530198969325513</v>
+        <v>9.885091002609866E-07</v>
       </c>
       <c r="T20">
-        <v>0.0007105919626509218</v>
+        <v>1.131867815575285E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,55 +1709,55 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.243757</v>
+      </c>
+      <c r="H21">
+        <v>6.731271</v>
+      </c>
+      <c r="I21">
+        <v>0.007917674625651083</v>
+      </c>
+      <c r="J21">
+        <v>0.007954486015309181</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.9296133333333332</v>
-      </c>
-      <c r="H21">
-        <v>2.78884</v>
-      </c>
-      <c r="I21">
-        <v>0.003259227157776163</v>
-      </c>
-      <c r="J21">
-        <v>0.003289927948768299</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N21">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O21">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P21">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q21">
-        <v>0.02818401703999999</v>
+        <v>61.5751619533095</v>
       </c>
       <c r="R21">
-        <v>0.2536561533599999</v>
+        <v>369.450971719857</v>
       </c>
       <c r="S21">
-        <v>1.465967277308478E-06</v>
+        <v>0.002912034215889227</v>
       </c>
       <c r="T21">
-        <v>1.639584705604082E-06</v>
+        <v>0.002222901678193154</v>
       </c>
     </row>
   </sheetData>
